--- a/docs/tables.xlsx
+++ b/docs/tables.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="11.0" lowestEdited="11.0" rupBuild="0.4167"/>
+  <x:fileVersion appName="HCell" lastEdited="11.0" lowestEdited="11.0" rupBuild="0.2292"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Park\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="4294935030" windowHeight="16590" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11820" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1 (2)" sheetId="1" r:id="rId4"/>
@@ -21,502 +21,529 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="163">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="172">
+  <x:si>
+    <x:t>RECEIPT_DETAIL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>샌드위치/햄버거</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자_패스워드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판유형_이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RECEIPT_CATEGORY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리_중분류_이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레시피_분류_번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레시피_조리시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOARD_TYPE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOOKMARKS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나물/생채/샐러드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자_활동정지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지_게시판번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레시피_상세_이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>찌개/전골/스튜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RECOMMEND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레시피_카테고리_이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레시피_카테고리_코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리_대분류_이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK, UQ, NN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리_중분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리_중분류_번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레시피_카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자_프로필이미지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RECOMMENDS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레시피_재료별분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레시피_태그_번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리_대분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리_대분류_번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판유형_번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조리시간 (분 단위)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레시피_음식분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자_가입일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보통</x:t>
+  </x:si>
+  <x:si>
+    <x:t>견과류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밀가루</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해조류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3인분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>찜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>칼로리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어려움</x:t>
+  </x:si>
+  <x:si>
+    <x:t>콩류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채소류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중국</x:t>
+  </x:si>
+  <x:si>
+    <x:t>태그</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1인분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서양</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4인분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부침</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양념장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버섯류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>곡류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>볶음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과일류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>난이도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레시피</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퓨전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2인분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INGREDIENTS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RECEIPTS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COMMENTS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST_TYPE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레시피_카테고리_번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조리과정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동남아시아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그라탕/리조또</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK, NN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조리과정_팁</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천_점수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레시피_이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천_번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조리과정_설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>만두/면류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자_성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조리과정_순서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>튀김/커틀릿</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가공식품류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지_타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초보환영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재료_용량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자_아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK, SQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쇠고기류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USERS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돼지고기류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레시피_국가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재료_순서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레시피_번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레시피_칼로리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NN, UQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>떡/한과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글_작성일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK, NN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PROCESS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>즐겨찾기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자_번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레시피_태그</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지_용량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글_조회수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도시락/간식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>태그_이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재료별 분류명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOARD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레시글_번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자_닉네임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어류/패류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레시피_유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가격별 분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUMBER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재료_이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글_작성일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK, PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글_제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>태그_번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글_내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레시피_분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHECK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글_내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밑반찬/김치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레시피_상세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COMMENT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레시피_난이도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삭제여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재료_번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POSTS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천_시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글_번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>태그_유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>닭고기류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IMAGES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글_상위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이탈리아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빵/과자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>즐겨찾기_날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>태그_분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지_URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RECEIPT</x:t>
+  </x:si>
   <x:si>
     <x:t>조리과정_번호</x:t>
   </x:si>
   <x:si>
-    <x:t>CHECK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삭제여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글_상위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천_시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글_내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK, SQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자_성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돼지고기류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그라탕/리조또</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조리과정_설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가공식품류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레시피_이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>튀김/커틀릿</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>만두/면류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지_타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK, NN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조리과정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재료_이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레시피_태그</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가격별 분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NUMBER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>태그_이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK, PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>태그_번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동남아시아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레시글_번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도시락/간식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천_점수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자_닉네임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재료_용량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>떡/한과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지_용량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글_작성일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NN, UQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>즐겨찾기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글_제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>태그_분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자_아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천_번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조리과정_순서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레시피_번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레시피_국가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>초보환영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조리과정_팁</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글_작성일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK, NN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쇠고기류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레시피_상세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지_URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RECEIPT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>닭고기류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레시피_분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>태그_유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>즐겨찾기_날짜</x:t>
-  </x:si>
-  <x:si>
     <x:t>게시글_번호</x:t>
   </x:si>
   <x:si>
-    <x:t>COMMENT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밑반찬/김치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레시피_난이도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재료별 분류명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PROCESS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재료_순서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글_조회수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재료_번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOARD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레시피_칼로리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이탈리아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글_번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어류/패류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글_내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빵/과자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자_번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IMAGE</x:t>
-  </x:si>
-  <x:si>
     <x:t>음식 분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>찌개/전골/스튜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INGREDIENT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리_중분류_이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RECOMMEND</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레시피_카테고리_코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레시피_태그_번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자_활동정지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리_중분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레시피_조리시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레시피_카테고리_이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자_프로필이미지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FAVORITE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레시피_상세_이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리_대분류_이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>샌드위치/햄버거</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레시피_카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판유형_이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레시피_상세_코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자_패스워드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판유형_번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조리시간 (분 단위)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나물/생채/샐러드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레시피_음식분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레시피_분류_번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK, UQ, NN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자_가입일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리_중분류_번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOARD_TYPE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리_대분류_번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리_대분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RECEIPT_CATEGORY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RECEIPT_DETAIL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서양</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3인분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레시피</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타</x:t>
-  </x:si>
-  <x:si>
-    <x:t>볶음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일본</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밀가루</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과일류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2인분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양념장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4인분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>칼로리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>난이도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퓨전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버섯류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>곡류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채소류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>찜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보통</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>콩류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중국</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어려움</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>태그</x:t>
-  </x:si>
-  <x:si>
-    <x:t>견과류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1인분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부침</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해조류</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="7">
+  <x:fonts count="8">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -553,8 +580,29 @@
       <x:color rgb="ff000000"/>
       <x:b val="1"/>
     </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <x:strike val="1"/>
+          <hs:strikeoutShape val="solid"/>
+          <hs:strikeoutType val="1"/>
+          <hs:strikeoutColor rgb="ff000000"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <x:strike val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:fonts>
-  <x:fills count="4">
+  <x:fills count="5">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -573,202 +621,208 @@
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor indexed="65"/>
+        <x:bgColor rgb="ff000000"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
   <x:borders count="14">
     <x:border>
       <x:left>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
   </x:borders>
@@ -777,7 +831,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="30">
+  <x:cellXfs count="35">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1038,6 +1092,51 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1288,10 +1387,10 @@
           </x:font>
           <x:border>
             <x:left>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:left>
             <x:right>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:right>
             <x:top style="medium">
               <x:color rgb="ff6182d6"/>
@@ -1300,10 +1399,10 @@
               <x:color rgb="ff6182d6"/>
             </x:bottom>
             <x:vertical>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:vertical>
             <x:horizontal>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:horizontal>
           </x:border>
         </x:dxf>
@@ -1315,10 +1414,10 @@
           </x:font>
           <x:border>
             <x:left>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:left>
             <x:right>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:right>
             <x:top style="medium">
               <x:color rgb="ff6182d6"/>
@@ -1327,10 +1426,10 @@
               <x:color rgb="ff6182d6"/>
             </x:bottom>
             <x:vertical>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:vertical>
             <x:horizontal>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:horizontal>
           </x:border>
         </x:dxf>
@@ -1783,7 +1882,7 @@
   <x:dimension ref="B2:M38"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H38" activeCellId="0" sqref="H38:H39"/>
+      <x:selection activeCell="K19" activeCellId="0" sqref="K19:K19"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="23.5" customHeight="1"/>
@@ -1806,542 +1905,540 @@
   <x:sheetData>
     <x:row r="2" spans="2:13" customHeight="1">
       <x:c r="B2" s="11" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="C2" s="28" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D2" s="29"/>
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C2" s="33" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D2" s="34"/>
       <x:c r="G2" s="11" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="H2" s="28" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="I2" s="29"/>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H2" s="33" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="I2" s="34"/>
       <x:c r="K2" s="24" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="L2" s="28" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="M2" s="29"/>
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="L2" s="33" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="M2" s="34"/>
     </x:row>
     <x:row r="3" spans="2:13" customHeight="1">
       <x:c r="B3" s="5" t="s">
-        <x:v>80</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C3" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D3" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="G3" s="25" t="s">
-        <x:v>76</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="H3" s="26" t="s">
-        <x:v>6</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="I3" s="27" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="K3" s="19" t="s">
-        <x:v>72</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="L3" s="18" t="s">
-        <x:v>6</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="M3" s="20" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:13" s="3" customFormat="1" customHeight="1">
       <x:c r="B4" s="5" t="s">
-        <x:v>47</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C4" s="6" t="s">
-        <x:v>43</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D4" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E4" s="4"/>
       <x:c r="F4" s="4"/>
       <x:c r="G4" s="5" t="s">
-        <x:v>80</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="H4" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="I4" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="K4" s="19" t="s">
-        <x:v>50</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="L4" s="18" t="s">
-        <x:v>55</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="M4" s="20" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:13" customHeight="1">
       <x:c r="B5" s="5" t="s">
-        <x:v>102</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C5" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D5" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G5" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="H5" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="I5" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="K5" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="L5" s="18" t="s">
-        <x:v>142</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="M5" s="20" t="s">
-        <x:v>91</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:13" customHeight="1">
       <x:c r="B6" s="5" t="s">
-        <x:v>37</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C6" s="6" t="s">
-        <x:v>43</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D6" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G6" s="5" t="s">
-        <x:v>78</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="H6" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I6" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K6" s="19" t="s">
-        <x:v>70</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="L6" s="18" t="s">
-        <x:v>142</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="M6" s="20" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:13" customHeight="1">
       <x:c r="B7" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C7" s="6"/>
       <x:c r="D7" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="G7" s="5" t="s">
-        <x:v>54</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="H7" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I7" s="7" t="s">
-        <x:v>21</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K7" s="21" t="s">
-        <x:v>38</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="L7" s="22"/>
       <x:c r="M7" s="23" t="s">
-        <x:v>91</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:9" customHeight="1">
       <x:c r="B8" s="5" t="s">
-        <x:v>109</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C8" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D8" s="7" t="s">
-        <x:v>21</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G8" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="H8" s="6" t="s">
-        <x:v>141</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I8" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:9" s="3" customFormat="1" customHeight="1">
       <x:c r="B9" s="5" t="s">
-        <x:v>94</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C9" s="6"/>
       <x:c r="D9" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="8" t="s">
-        <x:v>2</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="H9" s="9"/>
       <x:c r="I9" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:4" customHeight="1">
       <x:c r="B10" s="8" t="s">
-        <x:v>89</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="9"/>
       <x:c r="D10" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="7:13" customHeight="1">
       <x:c r="G12" s="11" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="H12" s="28" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="I12" s="29"/>
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="H12" s="33" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="I12" s="34"/>
       <x:c r="K12" s="11" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="L12" s="28" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="M12" s="29"/>
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="L12" s="33" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="M12" s="34"/>
     </x:row>
     <x:row r="13" spans="2:13" customHeight="1">
       <x:c r="B13" s="11" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="C13" s="28" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="D13" s="29"/>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C13" s="33" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="D13" s="34"/>
       <x:c r="G13" s="25" t="s">
-        <x:v>50</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H13" s="26" t="s">
-        <x:v>6</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="I13" s="27" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="K13" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="L13" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="M13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:13" customHeight="1">
       <x:c r="B14" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C14" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="G14" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="H14" s="6" t="s">
-        <x:v>108</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="K14" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="L14" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="M14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:13" customHeight="1">
       <x:c r="B15" s="5" t="s">
-        <x:v>80</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C15" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D15" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="G15" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H15" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I15" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K15" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L15" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="M15" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:13" customHeight="1">
       <x:c r="B16" s="5" t="s">
-        <x:v>103</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C16" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D16" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="G16" s="5" t="s">
-        <x:v>51</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H16" s="6" t="s">
-        <x:v>141</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I16" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K16" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L16" s="6"/>
       <x:c r="M16" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:13" customHeight="1">
       <x:c r="B17" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C17" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D17" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G17" s="5" t="s">
-        <x:v>106</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H17" s="6" t="s">
-        <x:v>141</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I17" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K17" s="5" t="s">
-        <x:v>58</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="L17" s="6" t="s">
-        <x:v>141</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="M17" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:13" customHeight="1">
       <x:c r="B18" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C18" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D18" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G18" s="5" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="H18" s="6" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="H18" s="6" t="s">
-        <x:v>141</x:v>
-      </x:c>
       <x:c r="I18" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K18" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="L18" s="9"/>
       <x:c r="M18" s="10" t="s">
-        <x:v>91</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:9" customHeight="1">
       <x:c r="B19" s="5" t="s">
-        <x:v>42</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C19" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>21</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G19" s="5" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="H19" s="6" t="s">
-        <x:v>141</x:v>
-      </x:c>
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H19" s="6"/>
       <x:c r="I19" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:9" customHeight="1">
       <x:c r="B20" s="8" t="s">
-        <x:v>71</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C20" s="9" t="s">
-        <x:v>142</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D20" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="G20" s="8" t="s">
-        <x:v>74</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H20" s="9"/>
       <x:c r="I20" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="11:13" customHeight="1">
       <x:c r="K22" s="11" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="L22" s="28" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="M22" s="29"/>
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="L22" s="33" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="M22" s="34"/>
     </x:row>
     <x:row r="23" spans="11:13" customHeight="1">
       <x:c r="K23" s="5" t="s">
-        <x:v>58</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="L23" s="6" t="s">
-        <x:v>149</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="M23" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="7:13" customHeight="1">
       <x:c r="G24" s="11" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="H24" s="28" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="I24" s="29"/>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H24" s="33" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="I24" s="34"/>
       <x:c r="K24" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="L24" s="6" t="s">
-        <x:v>141</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="M24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="2:13" customHeight="1">
       <x:c r="B25" s="11" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C25" s="28" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D25" s="29"/>
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C25" s="33" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D25" s="34"/>
       <x:c r="G25" s="5" t="s">
-        <x:v>87</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H25" s="6" t="s">
-        <x:v>149</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I25" s="7" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="K25" s="5" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="L25" s="6" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="M25" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="K25" s="30" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="L25" s="31" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="M25" s="32" t="s">
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="2:13" customHeight="1">
       <x:c r="B26" s="5" t="s">
-        <x:v>103</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C26" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D26" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="G26" s="8" t="s">
-        <x:v>93</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H26" s="9" t="s">
-        <x:v>142</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I26" s="10" t="s">
-        <x:v>91</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K26" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="L26" s="9" t="s">
-        <x:v>142</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="M26" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="2:4" customHeight="1">
       <x:c r="B27" s="8" t="s">
-        <x:v>100</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C27" s="9" t="s">
-        <x:v>142</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D27" s="10" t="s">
-        <x:v>91</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="13:13" customHeight="1">
@@ -2349,134 +2446,125 @@
     </x:row>
     <x:row r="30" spans="7:13" customHeight="1">
       <x:c r="G30" s="11" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="H30" s="28" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="I30" s="29"/>
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="H30" s="33" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I30" s="34"/>
       <x:c r="K30" s="11" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="L30" s="28" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="M30" s="29"/>
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="L30" s="33" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="M30" s="34"/>
     </x:row>
     <x:row r="31" spans="2:13" customHeight="1">
       <x:c r="B31" s="11" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="C31" s="28" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D31" s="29"/>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C31" s="33" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D31" s="34"/>
       <x:c r="G31" s="5" t="s">
-        <x:v>101</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H31" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="I31" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K31" s="5" t="s">
-        <x:v>80</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="L31" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="M31" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="2:13" s="3" customFormat="1" customHeight="1">
       <x:c r="B32" s="5" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C32" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D32" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E32" s="4"/>
       <x:c r="F32" s="4"/>
-      <x:c r="G32" s="5" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="H32" s="6" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="I32" s="7" t="s">
-        <x:v>91</x:v>
+      <x:c r="G32" s="8" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H32" s="9" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="I32" s="10" t="s">
+        <x:v>140</x:v>
       </x:c>
       <x:c r="K32" s="5" t="s">
-        <x:v>33</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L32" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="M32" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="2:13" customHeight="1">
       <x:c r="B33" s="5" t="s">
-        <x:v>80</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C33" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D33" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G33" s="8" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="H33" s="9" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="I33" s="10" t="s">
-        <x:v>91</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="K33" s="8" t="s">
-        <x:v>63</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="L33" s="9"/>
       <x:c r="M33" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="2:4" customHeight="1">
       <x:c r="B34" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C34" s="6" t="s">
-        <x:v>141</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D34" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="2:4" customHeight="1">
       <x:c r="B35" s="5" t="s">
-        <x:v>36</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C35" s="6" t="s">
-        <x:v>1</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D35" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="2:4" customHeight="1">
       <x:c r="B36" s="8" t="s">
-        <x:v>4</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C36" s="9"/>
       <x:c r="D36" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="9:9" customHeight="1">
@@ -2526,8 +2614,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:S62"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="I12" activeCellId="0" sqref="I12:I12"/>
+    <x:sheetView topLeftCell="A1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="N38" activeCellId="0" sqref="N38:N38"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="23.5" customHeight="1"/>
@@ -2544,166 +2632,232 @@
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="2:19" customHeight="1">
-      <x:c r="B2" s="11"/>
-      <x:c r="C2" s="28"/>
-      <x:c r="D2" s="29"/>
-      <x:c r="G2" s="11"/>
-      <x:c r="H2" s="28"/>
-      <x:c r="I2" s="29"/>
+      <x:c r="B2" s="11" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C2" s="33" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D2" s="34"/>
+      <x:c r="G2" s="11" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H2" s="33" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="I2" s="34"/>
       <x:c r="K2" s="12" t="s">
-        <x:v>134</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="L2" s="13" t="s">
-        <x:v>82</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="M2" s="13" t="s">
-        <x:v>104</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N2" s="14" t="s">
-        <x:v>153</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="O2" s="12" t="s">
-        <x:v>135</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="P2" s="13" t="s">
-        <x:v>68</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="Q2" s="13" t="s">
-        <x:v>26</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="R2" s="3" t="s">
-        <x:v>133</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="S2" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:17" customHeight="1">
-      <x:c r="B3" s="5"/>
-      <x:c r="C3" s="6"/>
-      <x:c r="D3" s="7"/>
-      <x:c r="G3" s="5"/>
-      <x:c r="H3" s="6"/>
-      <x:c r="I3" s="7"/>
+      <x:c r="B3" s="5" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C3" s="6" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D3" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G3" s="5" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="H3" s="6" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="I3" s="7" t="s">
+        <x:v>140</x:v>
+      </x:c>
       <x:c r="K3" s="15" t="s">
-        <x:v>32</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L3" s="16" t="s">
-        <x:v>155</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="M3" s="16">
         <x:v>5</x:v>
       </x:c>
       <x:c r="N3" s="16" t="s">
-        <x:v>159</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="O3" s="15" t="s">
-        <x:v>148</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="P3" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="Q3" s="16" t="s">
-        <x:v>41</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:17" customHeight="1">
-      <x:c r="B4" s="5"/>
-      <x:c r="C4" s="6"/>
-      <x:c r="D4" s="7"/>
-      <x:c r="G4" s="5"/>
-      <x:c r="H4" s="6"/>
-      <x:c r="I4" s="7"/>
+      <x:c r="B4" s="5" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C4" s="6" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D4" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G4" s="5" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="H4" s="6" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="I4" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
       <x:c r="K4" s="15" t="s">
-        <x:v>117</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L4" s="16" t="s">
-        <x:v>144</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M4" s="16">
         <x:v>10</x:v>
       </x:c>
       <x:c r="N4" s="16" t="s">
-        <x:v>129</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="O4" s="15" t="s">
-        <x:v>152</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="P4" s="16" t="s">
-        <x:v>158</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="Q4" s="16" t="s">
-        <x:v>15</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:17" customHeight="1">
-      <x:c r="B5" s="5"/>
-      <x:c r="C5" s="6"/>
-      <x:c r="D5" s="7"/>
-      <x:c r="G5" s="5"/>
-      <x:c r="H5" s="6"/>
-      <x:c r="I5" s="7"/>
+      <x:c r="B5" s="5" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C5" s="6" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D5" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G5" s="5" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="H5" s="6" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="I5" s="7" t="s">
+        <x:v>140</x:v>
+      </x:c>
       <x:c r="K5" s="15" t="s">
-        <x:v>75</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="L5" s="16" t="s">
-        <x:v>10</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="M5" s="16">
         <x:v>15</x:v>
       </x:c>
       <x:c r="N5" s="16" t="s">
-        <x:v>119</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="O5" s="15" t="s">
-        <x:v>52</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="P5" s="16" t="s">
-        <x:v>143</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="Q5" s="16" t="s">
-        <x:v>22</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:17" customHeight="1">
-      <x:c r="B6" s="5"/>
+      <x:c r="B6" s="5" t="s">
+        <x:v>100</x:v>
+      </x:c>
       <x:c r="C6" s="6"/>
-      <x:c r="D6" s="7"/>
-      <x:c r="G6" s="5"/>
-      <x:c r="H6" s="6"/>
-      <x:c r="I6" s="7"/>
+      <x:c r="D6" s="7" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="G6" s="5" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="H6" s="6" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I6" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
       <x:c r="K6" s="15" t="s">
-        <x:v>126</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="L6" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="M6" s="16">
         <x:v>20</x:v>
       </x:c>
       <x:c r="N6" s="16" t="s">
-        <x:v>132</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="O6" s="2"/>
       <x:c r="P6" s="16" t="s">
-        <x:v>128</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="Q6" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:17" customHeight="1">
-      <x:c r="B7" s="5"/>
-      <x:c r="C7" s="6"/>
-      <x:c r="D7" s="7"/>
-      <x:c r="G7" s="8"/>
-      <x:c r="H7" s="9"/>
-      <x:c r="I7" s="10"/>
+      <x:c r="B7" s="5" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C7" s="6" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D7" s="7" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="G7" s="8" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="H7" s="9" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I7" s="10" t="s">
+        <x:v>134</x:v>
+      </x:c>
       <x:c r="K7" s="15" t="s">
-        <x:v>151</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="L7" s="16" t="s">
-        <x:v>34</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="M7" s="16">
         <x:v>25</x:v>
@@ -2711,21 +2865,25 @@
       <x:c r="N7" s="2"/>
       <x:c r="O7" s="2"/>
       <x:c r="P7" s="16" t="s">
-        <x:v>121</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="Q7" s="16" t="s">
-        <x:v>18</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:17" customHeight="1">
-      <x:c r="B8" s="8"/>
+      <x:c r="B8" s="8" t="s">
+        <x:v>11</x:v>
+      </x:c>
       <x:c r="C8" s="9"/>
-      <x:c r="D8" s="10"/>
+      <x:c r="D8" s="10" t="s">
+        <x:v>140</x:v>
+      </x:c>
       <x:c r="K8" s="15" t="s">
-        <x:v>137</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="L8" s="16" t="s">
-        <x:v>39</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="M8" s="16">
         <x:v>30</x:v>
@@ -2733,16 +2891,16 @@
       <x:c r="N8" s="2"/>
       <x:c r="O8" s="2"/>
       <x:c r="P8" s="16" t="s">
-        <x:v>60</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="Q8" s="17"/>
     </x:row>
     <x:row r="9" spans="11:17" customHeight="1">
       <x:c r="K9" s="15" t="s">
-        <x:v>124</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="L9" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="M9" s="16">
         <x:v>35</x:v>
@@ -2750,16 +2908,16 @@
       <x:c r="N9" s="2"/>
       <x:c r="O9" s="2"/>
       <x:c r="P9" s="16" t="s">
-        <x:v>8</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="Q9" s="2"/>
     </x:row>
     <x:row r="10" spans="11:17" customHeight="1">
       <x:c r="K10" s="16" t="s">
-        <x:v>155</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="L10" s="16" t="s">
-        <x:v>66</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="M10" s="16">
         <x:v>40</x:v>
@@ -2767,22 +2925,30 @@
       <x:c r="N10" s="2"/>
       <x:c r="O10" s="2"/>
       <x:c r="P10" s="16" t="s">
-        <x:v>127</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="Q10" s="2"/>
     </x:row>
     <x:row r="11" spans="2:17" customHeight="1">
-      <x:c r="B11" s="11"/>
-      <x:c r="C11" s="28"/>
-      <x:c r="D11" s="29"/>
-      <x:c r="G11" s="11"/>
-      <x:c r="H11" s="28"/>
-      <x:c r="I11" s="29"/>
+      <x:c r="B11" s="11" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C11" s="33" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D11" s="34"/>
+      <x:c r="G11" s="11" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="H11" s="33" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="I11" s="34"/>
       <x:c r="K11" s="16" t="s">
-        <x:v>144</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L11" s="16" t="s">
-        <x:v>154</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M11" s="16">
         <x:v>50</x:v>
@@ -2790,22 +2956,34 @@
       <x:c r="N11" s="2"/>
       <x:c r="O11" s="2"/>
       <x:c r="P11" s="16" t="s">
-        <x:v>138</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="Q11" s="2"/>
     </x:row>
     <x:row r="12" spans="2:17" customHeight="1">
-      <x:c r="B12" s="5"/>
-      <x:c r="C12" s="6"/>
-      <x:c r="D12" s="7"/>
-      <x:c r="G12" s="5"/>
-      <x:c r="H12" s="6"/>
-      <x:c r="I12" s="7"/>
+      <x:c r="B12" s="5" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="C12" s="6" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D12" s="7" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="G12" s="5" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="H12" s="6" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="I12" s="7" t="s">
+        <x:v>140</x:v>
+      </x:c>
       <x:c r="K12" s="16" t="s">
-        <x:v>10</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="L12" s="16" t="s">
-        <x:v>122</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="M12" s="16">
         <x:v>60</x:v>
@@ -2813,22 +2991,34 @@
       <x:c r="N12" s="2"/>
       <x:c r="O12" s="2"/>
       <x:c r="P12" s="16" t="s">
-        <x:v>56</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="Q12" s="2"/>
     </x:row>
     <x:row r="13" spans="2:17" customHeight="1">
-      <x:c r="B13" s="5"/>
-      <x:c r="C13" s="6"/>
-      <x:c r="D13" s="7"/>
-      <x:c r="G13" s="5"/>
-      <x:c r="H13" s="6"/>
-      <x:c r="I13" s="7"/>
+      <x:c r="B13" s="5" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C13" s="6" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D13" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G13" s="5" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="H13" s="6" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I13" s="7" t="s">
+        <x:v>140</x:v>
+      </x:c>
       <x:c r="K13" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="L13" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="M13" s="16">
         <x:v>70</x:v>
@@ -2836,22 +3026,34 @@
       <x:c r="N13" s="2"/>
       <x:c r="O13" s="2"/>
       <x:c r="P13" s="16" t="s">
-        <x:v>146</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q13" s="2"/>
     </x:row>
     <x:row r="14" spans="2:17" customHeight="1">
-      <x:c r="B14" s="5"/>
-      <x:c r="C14" s="6"/>
-      <x:c r="D14" s="7"/>
-      <x:c r="G14" s="8"/>
-      <x:c r="H14" s="9"/>
-      <x:c r="I14" s="10"/>
+      <x:c r="B14" s="5" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C14" s="6" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D14" s="7" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="G14" s="8" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="H14" s="9" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I14" s="10" t="s">
+        <x:v>33</x:v>
+      </x:c>
       <x:c r="K14" s="16" t="s">
-        <x:v>34</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="L14" s="16" t="s">
-        <x:v>79</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="M14" s="16">
         <x:v>80</x:v>
@@ -2859,19 +3061,31 @@
       <x:c r="N14" s="2"/>
       <x:c r="O14" s="2"/>
       <x:c r="P14" s="16" t="s">
-        <x:v>77</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="Q14" s="2"/>
     </x:row>
     <x:row r="15" spans="2:17" customHeight="1">
-      <x:c r="B15" s="5"/>
-      <x:c r="C15" s="6"/>
-      <x:c r="D15" s="7"/>
+      <x:c r="B15" s="5" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="C15" s="6" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D15" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G15" s="4" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="H15" s="4" t="s">
+        <x:v>67</x:v>
+      </x:c>
       <x:c r="K15" s="16" t="s">
-        <x:v>39</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="L15" s="16" t="s">
-        <x:v>98</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M15" s="16">
         <x:v>90</x:v>
@@ -2879,19 +3093,31 @@
       <x:c r="N15" s="2"/>
       <x:c r="O15" s="2"/>
       <x:c r="P15" s="16" t="s">
-        <x:v>145</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q15" s="2"/>
     </x:row>
     <x:row r="16" spans="2:17" customHeight="1">
-      <x:c r="B16" s="5"/>
-      <x:c r="C16" s="6"/>
-      <x:c r="D16" s="7"/>
+      <x:c r="B16" s="5" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="C16" s="6" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D16" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G16" s="4" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H16" s="4" t="s">
+        <x:v>67</x:v>
+      </x:c>
       <x:c r="K16" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="L16" s="16" t="s">
-        <x:v>131</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="M16" s="16">
         <x:v>120</x:v>
@@ -2899,19 +3125,31 @@
       <x:c r="N16" s="2"/>
       <x:c r="O16" s="2"/>
       <x:c r="P16" s="16" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="Q16" s="2"/>
+    </x:row>
+    <x:row r="17" spans="2:17" customHeight="1">
+      <x:c r="B17" s="5" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C17" s="6" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D17" s="7" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="G17" s="4" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="H17" s="4" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="K17" s="16" t="s">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="Q16" s="2"/>
-    </x:row>
-    <x:row r="17" spans="2:17" customHeight="1">
-      <x:c r="B17" s="5"/>
-      <x:c r="C17" s="6"/>
-      <x:c r="D17" s="7"/>
-      <x:c r="K17" s="16" t="s">
-        <x:v>66</x:v>
-      </x:c>
       <x:c r="L17" s="16" t="s">
-        <x:v>123</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="M17" s="16">
         <x:v>140</x:v>
@@ -2919,19 +3157,31 @@
       <x:c r="N17" s="2"/>
       <x:c r="O17" s="2"/>
       <x:c r="P17" s="16" t="s">
-        <x:v>162</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="Q17" s="2"/>
     </x:row>
     <x:row r="18" spans="2:17" customHeight="1">
-      <x:c r="B18" s="8"/>
-      <x:c r="C18" s="9"/>
-      <x:c r="D18" s="10"/>
+      <x:c r="B18" s="8" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C18" s="9" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D18" s="10" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="G18" s="4" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H18" s="4" t="s">
+        <x:v>67</x:v>
+      </x:c>
       <x:c r="K18" s="16" t="s">
-        <x:v>154</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L18" s="16" t="s">
-        <x:v>130</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="M18" s="16">
         <x:v>175</x:v>
@@ -2945,10 +3195,10 @@
     </x:row>
     <x:row r="19" spans="11:17" customHeight="1">
       <x:c r="K19" s="16" t="s">
-        <x:v>122</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="L19" s="16" t="s">
-        <x:v>125</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="M19" s="16">
         <x:v>180</x:v>
@@ -2960,10 +3210,10 @@
     </x:row>
     <x:row r="20" spans="11:17" customHeight="1">
       <x:c r="K20" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="L20" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="M20" s="2"/>
       <x:c r="N20" s="2"/>
@@ -2972,14 +3222,18 @@
       <x:c r="Q20" s="2"/>
     </x:row>
     <x:row r="21" spans="2:17" customHeight="1">
-      <x:c r="B21" s="11"/>
-      <x:c r="C21" s="28"/>
-      <x:c r="D21" s="29"/>
+      <x:c r="B21" s="11" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C21" s="33" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D21" s="34"/>
       <x:c r="K21" s="16" t="s">
-        <x:v>79</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="L21" s="16" t="s">
-        <x:v>147</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="M21" s="2"/>
       <x:c r="N21" s="2"/>
@@ -2988,14 +3242,20 @@
       <x:c r="Q21" s="2"/>
     </x:row>
     <x:row r="22" spans="2:17" customHeight="1">
-      <x:c r="B22" s="5"/>
-      <x:c r="C22" s="6"/>
-      <x:c r="D22" s="7"/>
+      <x:c r="B22" s="5" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C22" s="6" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D22" s="7" t="s">
+        <x:v>140</x:v>
+      </x:c>
       <x:c r="K22" s="16" t="s">
-        <x:v>98</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L22" s="16" t="s">
-        <x:v>14</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M22" s="2"/>
       <x:c r="N22" s="2"/>
@@ -3004,14 +3264,20 @@
       <x:c r="Q22" s="2"/>
     </x:row>
     <x:row r="23" spans="2:17" customHeight="1">
-      <x:c r="B23" s="8"/>
-      <x:c r="C23" s="9"/>
-      <x:c r="D23" s="10"/>
+      <x:c r="B23" s="8" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C23" s="9" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D23" s="10" t="s">
+        <x:v>33</x:v>
+      </x:c>
       <x:c r="K23" s="16" t="s">
-        <x:v>131</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="L23" s="16" t="s">
-        <x:v>156</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="M23" s="2"/>
       <x:c r="N23" s="2"/>
@@ -3021,251 +3287,313 @@
     </x:row>
     <x:row r="24" spans="11:11" customHeight="1">
       <x:c r="K24" s="16" t="s">
-        <x:v>123</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="11:11" customHeight="1">
       <x:c r="K25" s="16" t="s">
-        <x:v>130</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="2:11" customHeight="1">
-      <x:c r="B26" s="11"/>
-      <x:c r="C26" s="28"/>
-      <x:c r="D26" s="29"/>
+      <x:c r="B26" s="11" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C26" s="33" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D26" s="34"/>
       <x:c r="K26" s="16" t="s">
-        <x:v>125</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="2:15" customHeight="1">
-      <x:c r="B27" s="5"/>
-      <x:c r="C27" s="6"/>
-      <x:c r="D27" s="7"/>
+      <x:c r="B27" s="5" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C27" s="6" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D27" s="7" t="s">
+        <x:v>140</x:v>
+      </x:c>
       <x:c r="K27" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="O27" s="4"/>
     </x:row>
     <x:row r="28" spans="2:19" customHeight="1">
-      <x:c r="B28" s="5"/>
-      <x:c r="C28" s="6"/>
-      <x:c r="D28" s="7"/>
+      <x:c r="B28" s="5" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C28" s="6" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D28" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
       <x:c r="K28" s="16" t="s">
-        <x:v>147</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="O28" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="Q28" s="3" t="s">
-        <x:v>157</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="S28" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="2:17" customHeight="1">
-      <x:c r="B29" s="5"/>
-      <x:c r="C29" s="6"/>
-      <x:c r="D29" s="7"/>
+      <x:c r="B29" s="5" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="C29" s="6" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D29" s="7" t="s">
+        <x:v>140</x:v>
+      </x:c>
       <x:c r="K29" s="16" t="s">
-        <x:v>14</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O29" s="4" t="s">
-        <x:v>88</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="Q29" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="2:17" s="3" customFormat="1" customHeight="1">
-      <x:c r="B30" s="5"/>
-      <x:c r="C30" s="6"/>
-      <x:c r="D30" s="7"/>
+      <x:c r="B30" s="5" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C30" s="6" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D30" s="7" t="s">
+        <x:v>140</x:v>
+      </x:c>
       <x:c r="E30" s="4"/>
       <x:c r="F30" s="4"/>
       <x:c r="G30" s="4"/>
       <x:c r="H30" s="4"/>
       <x:c r="K30" s="16" t="s">
-        <x:v>156</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="O30" s="4" t="s">
-        <x:v>50</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="Q30" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="2:17" customHeight="1">
-      <x:c r="B31" s="8"/>
+      <x:c r="B31" s="8" t="s">
+        <x:v>157</x:v>
+      </x:c>
       <x:c r="C31" s="9"/>
-      <x:c r="D31" s="10"/>
-      <x:c r="K31" s="16">
+      <x:c r="D31" s="10" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="J31" s="28"/>
+      <x:c r="K31" s="29"/>
+      <x:c r="L31" s="28"/>
+      <x:c r="O31" s="4" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="Q31" s="3" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="10:12" customHeight="1">
+      <x:c r="J32" s="28"/>
+      <x:c r="K32" s="29"/>
+      <x:c r="L32" s="28"/>
+    </x:row>
+    <x:row r="33" spans="10:12" customHeight="1">
+      <x:c r="J33" s="28"/>
+      <x:c r="K33" s="29"/>
+      <x:c r="L33" s="28"/>
+    </x:row>
+    <x:row r="34" spans="2:12" customHeight="1">
+      <x:c r="B34" s="4" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="J34" s="28"/>
+      <x:c r="K34" s="29"/>
+      <x:c r="L34" s="28"/>
+    </x:row>
+    <x:row r="35" spans="2:12" customHeight="1">
+      <x:c r="B35" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="J35" s="28"/>
+      <x:c r="K35" s="29"/>
+      <x:c r="L35" s="28"/>
+    </x:row>
+    <x:row r="36" spans="2:12" customHeight="1">
+      <x:c r="B36" s="4" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="J36" s="28"/>
+      <x:c r="K36" s="29"/>
+      <x:c r="L36" s="28"/>
+    </x:row>
+    <x:row r="37" spans="2:12" customHeight="1">
+      <x:c r="B37" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J37" s="28"/>
+      <x:c r="K37" s="29"/>
+      <x:c r="L37" s="28"/>
+    </x:row>
+    <x:row r="38" spans="10:12" customHeight="1">
+      <x:c r="J38" s="28"/>
+      <x:c r="K38" s="29"/>
+      <x:c r="L38" s="28"/>
+    </x:row>
+    <x:row r="39" spans="10:12" customHeight="1">
+      <x:c r="J39" s="28"/>
+      <x:c r="K39" s="29"/>
+      <x:c r="L39" s="28"/>
+    </x:row>
+    <x:row r="40" spans="2:12" customHeight="1">
+      <x:c r="B40" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J40" s="28"/>
+      <x:c r="K40" s="29"/>
+      <x:c r="L40" s="28"/>
+    </x:row>
+    <x:row r="41" spans="2:12" customHeight="1">
+      <x:c r="B41" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J41" s="28"/>
+      <x:c r="K41" s="29"/>
+      <x:c r="L41" s="28"/>
+    </x:row>
+    <x:row r="42" spans="2:12" customHeight="1">
+      <x:c r="B42" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="O31" s="4" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="Q31" s="3" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="11:11" customHeight="1">
-      <x:c r="K32" s="16">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="11:11" customHeight="1">
-      <x:c r="K33" s="16">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="2:11" customHeight="1">
-      <x:c r="B34" s="4" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="K34" s="16">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="2:11" customHeight="1">
-      <x:c r="B35" s="4" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="K35" s="16">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="2:11" customHeight="1">
-      <x:c r="B36" s="4" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="K36" s="16">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="2:11" customHeight="1">
-      <x:c r="B37" s="4" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="K37" s="16">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="11:11" customHeight="1">
-      <x:c r="K38" s="16">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="11:11" customHeight="1">
-      <x:c r="K39" s="16">
-        <x:v>50</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="2:11" customHeight="1">
-      <x:c r="B40" s="4" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="K40" s="16">
-        <x:v>60</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="2:11" customHeight="1">
-      <x:c r="B41" s="4" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="K41" s="16">
-        <x:v>70</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="2:11" customHeight="1">
-      <x:c r="B42" s="4" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="K42" s="16">
-        <x:v>80</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="2:11" customHeight="1">
+      <x:c r="J42" s="28"/>
+      <x:c r="K42" s="29"/>
+      <x:c r="L42" s="28"/>
+    </x:row>
+    <x:row r="43" spans="2:12" customHeight="1">
       <x:c r="B43" s="4" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="K43" s="16">
-        <x:v>90</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="11:11" customHeight="1">
-      <x:c r="K44" s="16">
-        <x:v>120</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="11:11" customHeight="1">
-      <x:c r="K45" s="16">
-        <x:v>140</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="2:11" customHeight="1">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J43" s="28"/>
+      <x:c r="K43" s="29"/>
+      <x:c r="L43" s="28"/>
+    </x:row>
+    <x:row r="44" spans="10:12" customHeight="1">
+      <x:c r="J44" s="28"/>
+      <x:c r="K44" s="29"/>
+      <x:c r="L44" s="28"/>
+    </x:row>
+    <x:row r="45" spans="10:12" customHeight="1">
+      <x:c r="J45" s="28"/>
+      <x:c r="K45" s="29"/>
+      <x:c r="L45" s="28"/>
+    </x:row>
+    <x:row r="46" spans="2:12" customHeight="1">
       <x:c r="B46" s="4" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="K46" s="16">
-        <x:v>175</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="2:11" customHeight="1">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J46" s="28"/>
+      <x:c r="K46" s="29"/>
+      <x:c r="L46" s="28"/>
+    </x:row>
+    <x:row r="47" spans="2:12" customHeight="1">
       <x:c r="B47" s="4" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="K47" s="16">
-        <x:v>180</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="2:11" customHeight="1">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J47" s="28"/>
+      <x:c r="K47" s="29"/>
+      <x:c r="L47" s="28"/>
+    </x:row>
+    <x:row r="48" spans="2:12" customHeight="1">
       <x:c r="B48" s="4" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="K48" s="16"/>
-    </x:row>
-    <x:row r="49" spans="11:11" customHeight="1">
-      <x:c r="K49" s="16"/>
-    </x:row>
-    <x:row r="50" spans="11:11" customHeight="1">
-      <x:c r="K50" s="16"/>
-    </x:row>
-    <x:row r="51" spans="11:11" customHeight="1">
-      <x:c r="K51" s="16"/>
-    </x:row>
-    <x:row r="52" spans="11:11" customHeight="1">
-      <x:c r="K52" s="16"/>
-    </x:row>
-    <x:row r="53" spans="11:11" customHeight="1">
-      <x:c r="K53" s="16"/>
-    </x:row>
-    <x:row r="54" spans="11:11" customHeight="1">
-      <x:c r="K54" s="16"/>
-    </x:row>
-    <x:row r="55" spans="11:11" customHeight="1">
-      <x:c r="K55" s="16"/>
-    </x:row>
-    <x:row r="56" spans="11:11" customHeight="1">
-      <x:c r="K56" s="16"/>
-    </x:row>
-    <x:row r="57" spans="11:11" customHeight="1">
-      <x:c r="K57" s="16"/>
-    </x:row>
-    <x:row r="58" spans="11:11" customHeight="1">
-      <x:c r="K58" s="16"/>
-    </x:row>
-    <x:row r="59" spans="11:11" customHeight="1">
-      <x:c r="K59" s="16"/>
-    </x:row>
-    <x:row r="60" spans="11:11" customHeight="1">
-      <x:c r="K60" s="16"/>
-    </x:row>
-    <x:row r="61" spans="11:11" customHeight="1">
-      <x:c r="K61" s="16"/>
-    </x:row>
-    <x:row r="62" spans="11:11" customHeight="1">
-      <x:c r="K62" s="16"/>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J48" s="28"/>
+      <x:c r="K48" s="29"/>
+      <x:c r="L48" s="28"/>
+    </x:row>
+    <x:row r="49" spans="10:12" customHeight="1">
+      <x:c r="J49" s="28"/>
+      <x:c r="K49" s="29"/>
+      <x:c r="L49" s="28"/>
+    </x:row>
+    <x:row r="50" spans="10:12" customHeight="1">
+      <x:c r="J50" s="28"/>
+      <x:c r="K50" s="29"/>
+      <x:c r="L50" s="28"/>
+    </x:row>
+    <x:row r="51" spans="10:12" customHeight="1">
+      <x:c r="J51" s="28"/>
+      <x:c r="K51" s="29"/>
+      <x:c r="L51" s="28"/>
+    </x:row>
+    <x:row r="52" spans="10:12" customHeight="1">
+      <x:c r="J52" s="28"/>
+      <x:c r="K52" s="29"/>
+      <x:c r="L52" s="28"/>
+    </x:row>
+    <x:row r="53" spans="10:12" customHeight="1">
+      <x:c r="J53" s="28"/>
+      <x:c r="K53" s="29"/>
+      <x:c r="L53" s="28"/>
+    </x:row>
+    <x:row r="54" spans="10:12" customHeight="1">
+      <x:c r="J54" s="28"/>
+      <x:c r="K54" s="29"/>
+      <x:c r="L54" s="28"/>
+    </x:row>
+    <x:row r="55" spans="10:12" customHeight="1">
+      <x:c r="J55" s="28"/>
+      <x:c r="K55" s="29"/>
+      <x:c r="L55" s="28"/>
+    </x:row>
+    <x:row r="56" spans="10:12" customHeight="1">
+      <x:c r="J56" s="28"/>
+      <x:c r="K56" s="29"/>
+      <x:c r="L56" s="28"/>
+    </x:row>
+    <x:row r="57" spans="10:12" customHeight="1">
+      <x:c r="J57" s="28"/>
+      <x:c r="K57" s="29"/>
+      <x:c r="L57" s="28"/>
+    </x:row>
+    <x:row r="58" spans="10:12" customHeight="1">
+      <x:c r="J58" s="28"/>
+      <x:c r="K58" s="29"/>
+      <x:c r="L58" s="28"/>
+    </x:row>
+    <x:row r="59" spans="10:12" customHeight="1">
+      <x:c r="J59" s="28"/>
+      <x:c r="K59" s="29"/>
+      <x:c r="L59" s="28"/>
+    </x:row>
+    <x:row r="60" spans="10:12" customHeight="1">
+      <x:c r="J60" s="28"/>
+      <x:c r="K60" s="29"/>
+      <x:c r="L60" s="28"/>
+    </x:row>
+    <x:row r="61" spans="10:12" customHeight="1">
+      <x:c r="J61" s="28"/>
+      <x:c r="K61" s="29"/>
+      <x:c r="L61" s="28"/>
+    </x:row>
+    <x:row r="62" spans="10:12" customHeight="1">
+      <x:c r="J62" s="28"/>
+      <x:c r="K62" s="29"/>
+      <x:c r="L62" s="28"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="6">
